--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd2cb293425af984/Stocks/Industries/Biopharma/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malburg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{E98B017A-AAA1-9044-A322-74BA72939EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5A46170-E924-504E-9AE6-D627B83689FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42B806-9DFF-4C97-A85C-8AC50EAD65C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{14020595-A68F-1A4C-B416-E30E8431119B}"/>
+    <workbookView xWindow="1575" yWindow="1680" windowWidth="27000" windowHeight="14370" xr2:uid="{14020595-A68F-1A4C-B416-E30E8431119B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Tarik Asaad</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{9015691D-8B21-8840-9ACB-7C46ED5DE66B}">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{9015691D-8B21-8840-9ACB-7C46ED5DE66B}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t xml:space="preserve">Ticker </t>
   </si>
@@ -220,13 +220,52 @@
   </si>
   <si>
     <t>Springworks Therapeatics</t>
+  </si>
+  <si>
+    <t>REGN</t>
+  </si>
+  <si>
+    <t>MDGL</t>
+  </si>
+  <si>
+    <t>EYPT</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>Disc Medicine Inc</t>
+  </si>
+  <si>
+    <t>EyePoint Pharmaceuticals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrigal Pharmaceuticals </t>
+  </si>
+  <si>
+    <t>Regeneron</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>08/13/24</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>short@2,64</t>
+  </si>
+  <si>
+    <t>Eylea expires i think at the end of 2025. They have five drugs in phase 3, but the question remains whether those will accumulate as much rev as Eylea and when they could potentially get approved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +307,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -298,9 +342,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +358,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -654,283 +698,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F868E60-D2FF-6742-804B-E02A0D53E588}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="10.83203125" style="4"/>
-    <col min="6" max="6" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="6"/>
-    <col min="8" max="10" width="10.83203125" style="5"/>
-    <col min="11" max="11" width="10.83203125" style="4"/>
-    <col min="12" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="10.875" style="3"/>
+    <col min="2" max="2" width="24.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="3"/>
+    <col min="4" max="4" width="10.875" style="4"/>
+    <col min="5" max="5" width="10.875" style="3"/>
+    <col min="6" max="6" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="5"/>
+    <col min="8" max="10" width="10.875" style="4"/>
+    <col min="11" max="12" width="10.875" style="3"/>
+    <col min="13" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>10.94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2.87</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>45501</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>226.4</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>45495</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>4.26</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>45496</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>33.880000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>16.25</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>45496</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2.02</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>137372</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>3.2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>291323</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>6.72</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>123353</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>2.4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>4.16</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>125525</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>6.27</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>167586</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>6.11</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>355592</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3">
+        <v>242.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45.02</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{EE29982D-5A4B-1349-90EE-9D85A4123A17}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{8CE5E970-F57C-5847-90D7-A361275870C2}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{AC55DEC5-09A7-400A-BC74-F2302C1E25F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>